--- a/Week 6/Linear Regression.xlsx
+++ b/Week 6/Linear Regression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engbi\OneDrive\Documents\GitHub\IT365\Week 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2ED74D75-C480-4540-B515-694B3924434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE904D4-B4F6-4D3F-9D0D-AC2330A82B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1785" windowWidth="18000" windowHeight="9480" xr2:uid="{4073B383-F303-4A32-94EA-0EF2380D9CBF}"/>
+    <workbookView xWindow="24810" yWindow="-1515" windowWidth="18000" windowHeight="9480" xr2:uid="{4073B383-F303-4A32-94EA-0EF2380D9CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>MILES</t>
   </si>
@@ -51,9 +51,6 @@
     <t>b1</t>
   </si>
   <si>
-    <t>b2</t>
-  </si>
-  <si>
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
@@ -124,12 +121,24 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>xy/sx^2</t>
+  </si>
+  <si>
+    <t>ymean - (b1*xmean)</t>
+  </si>
+  <si>
+    <t>b0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -197,6 +206,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,6 +310,50 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$12</c:f>
@@ -1138,16 +1192,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1474,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9807B3-396E-4471-929C-5476E0A318CB}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1585,7 @@
         <v>900</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1566,7 +1620,7 @@
         <v>400</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" s="4"/>
     </row>
@@ -1586,7 +1640,7 @@
         <v>900</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="1">
         <v>0.81091187689185795</v>
@@ -1608,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N7" s="1">
         <v>0.65757807208427577</v>
@@ -1630,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" s="1">
         <v>0.6147753310948102</v>
@@ -1652,7 +1706,7 @@
         <v>225</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" s="1">
         <v>1.0164088530319577</v>
@@ -1674,7 +1728,7 @@
         <v>100</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N10" s="2">
         <v>10</v>
@@ -1704,41 +1758,38 @@
         <v>6.7</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(C2:C11)</f>
+        <v>234.00000000000003</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(D2:D11)</f>
+        <v>3450</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -1758,10 +1809,17 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="5">
+        <f>C12/D12</f>
+        <v>6.7826086956521744E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N15" s="1">
         <v>8</v>
@@ -1776,8 +1834,18 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5">
+        <f>B12-(C15*A12)</f>
+        <v>1.2739130434782604</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
       <c r="M16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="2">
         <v>9</v>
@@ -1793,33 +1861,33 @@
     <row r="18" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" s="1">
         <v>1.2539130434782582</v>
